--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5800</v>
+        <v>157300</v>
       </c>
       <c r="E8" s="3">
-        <v>6800</v>
+        <v>152600</v>
       </c>
       <c r="F8" s="3">
+        <v>152500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>144800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>137300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>132600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>465600</v>
+      </c>
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>7300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>113200</v>
       </c>
       <c r="E9" s="3">
-        <v>2400</v>
+        <v>112000</v>
       </c>
       <c r="F9" s="3">
+        <v>107000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>110300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>108600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>355000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>32600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="L10" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,41 +944,46 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -925,8 +993,23 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1052,23 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -978,66 +1076,81 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>300</v>
+      </c>
+      <c r="M14" s="3">
+        <v>700</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>300</v>
+      </c>
+      <c r="P14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>700</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>300</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1057,8 +1170,23 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1200,131 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7500</v>
+        <v>136800</v>
       </c>
       <c r="E17" s="3">
-        <v>8200</v>
+        <v>191700</v>
       </c>
       <c r="F17" s="3">
+        <v>132300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>131800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>132200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>120000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>429100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>9600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1700</v>
+        <v>20500</v>
       </c>
       <c r="E18" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="Q18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,210 +1341,275 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="M21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="U22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="M23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="U23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>19</v>
+      <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4900</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1392,14 +1620,29 @@
       <c r="N24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1685,141 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="M26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="U26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="M27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="U27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1862,23 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1921,23 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1980,23 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +2039,141 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="M33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="U33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2216,146 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="M35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="U35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2372,13 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2395,72 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E41" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>700</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="O41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,207 +2503,282 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
+        <v>39400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F46" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="R46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="U46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>14500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2275,96 +2798,141 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
-      </c>
-      <c r="F48" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F49" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="3">
         <v>4700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="L49" s="3">
         <v>4800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="M49" s="3">
         <v>4800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="N49" s="3">
         <v>4900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="O49" s="3">
         <v>5100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="P49" s="3">
         <v>5200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="Q49" s="3">
         <v>5400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="R49" s="3">
         <v>5500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="S49" s="3">
         <v>5700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="T49" s="3">
         <v>5900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="U49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2975,23 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +3034,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2495,8 +3093,23 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +3152,82 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>374700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L54" s="3">
+        <v>10100</v>
+      </c>
+      <c r="M54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
-        <v>10800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>12400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>9000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3">
         <v>7700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="R54" s="3">
         <v>8400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="S54" s="3">
         <v>9300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>8200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="U54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3244,13 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,189 +3267,254 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="E57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F59" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="3">
         <v>1800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1200</v>
       </c>
       <c r="L59" s="3">
         <v>1400</v>
       </c>
       <c r="M59" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="N59" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>1500</v>
       </c>
       <c r="P59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F60" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="O60" s="3">
         <v>6700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>296100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2834,57 +3547,87 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="U61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3000</v>
       </c>
       <c r="M62" s="3">
         <v>2500</v>
       </c>
       <c r="N62" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="O62" s="3">
         <v>3000</v>
       </c>
       <c r="P62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3670,23 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3729,23 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3788,82 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10800</v>
-      </c>
-      <c r="F66" s="3">
+        <v>412500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="U66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3880,13 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3929,23 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3988,23 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +4047,23 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +4106,82 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-49800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="F72" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="3">
         <v>-45800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>-43900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>-41700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-39300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>-37400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="3">
         <v>-34100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="R72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="S72" s="3">
         <v>-31700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="T72" s="3">
         <v>-29100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="U72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4224,23 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4283,23 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4342,82 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="S76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4460,146 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="M81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="U81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,31 +4616,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3667,13 +4660,28 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4724,23 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4783,23 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4842,23 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4901,23 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4960,82 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="M89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +5052,72 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>19</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +5160,23 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +5219,23 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,40 +5246,55 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5311,13 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5360,23 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5419,23 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5478,23 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5537,82 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="S100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +5655,78 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>700</v>
+      </c>
+      <c r="L102" s="3">
+        <v>500</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,205 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E8" s="3">
         <v>157300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>152600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>152500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>144800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>137300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>132600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>465600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E9" s="3">
         <v>113200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>107000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>110300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>108600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>355000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
-      </c>
-      <c r="P9" s="3">
-        <v>500</v>
       </c>
       <c r="Q9" s="3">
         <v>500</v>
       </c>
       <c r="R9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S9" s="3">
         <v>400</v>
@@ -865,69 +872,75 @@
         <v>400</v>
       </c>
       <c r="U9" s="3">
+        <v>400</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E10" s="3">
         <v>44100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>28700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>110600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,8 @@
       <c r="J12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -985,7 +999,7 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,20 +1084,23 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1091,48 +1111,51 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>300</v>
       </c>
       <c r="Q14" s="3">
+        <v>300</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="E15" s="3">
         <v>3000</v>
@@ -1141,20 +1164,20 @@
         <v>3000</v>
       </c>
       <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
         <v>2800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9000</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E17" s="3">
         <v>136800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>191700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>131800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>120000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>429100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E18" s="3">
         <v>20500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1900</v>
       </c>
       <c r="T18" s="3">
         <v>-1900</v>
       </c>
       <c r="U18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,44 +1379,45 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1391,27 +1425,30 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
+      <c r="D21" s="3">
+        <v>-6900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>19</v>
@@ -1422,91 +1459,94 @@
       <c r="G21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
         <v>9600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1515,116 +1555,122 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E23" s="3">
         <v>14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1800</v>
       </c>
       <c r="O23" s="3">
         <v>-1800</v>
       </c>
       <c r="P23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4900</v>
       </c>
       <c r="F24" s="3">
         <v>4900</v>
       </c>
       <c r="G24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>19</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1632,17 +1678,20 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E26" s="3">
         <v>9600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1800</v>
       </c>
       <c r="O26" s="3">
         <v>-1800</v>
       </c>
       <c r="P26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1800</v>
       </c>
       <c r="O27" s="3">
         <v>-1800</v>
       </c>
       <c r="P27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,44 +2121,47 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2099,81 +2169,87 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1800</v>
       </c>
       <c r="O33" s="3">
         <v>-1800</v>
       </c>
       <c r="P33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1800</v>
       </c>
       <c r="O35" s="3">
         <v>-1800</v>
       </c>
       <c r="P35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,17 +2486,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>201500</v>
+      </c>
+      <c r="E41" s="3">
         <v>77300</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2426,41 +2513,44 @@
       <c r="J41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,17 +2608,20 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E43" s="3">
         <v>39400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2544,27 +2637,27 @@
       <c r="J43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2604,49 +2700,52 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2200</v>
       </c>
       <c r="N44" s="3">
         <v>2200</v>
       </c>
       <c r="O44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P44" s="3">
         <v>1600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>600</v>
       </c>
       <c r="R44" s="3">
         <v>600</v>
       </c>
       <c r="S44" s="3">
+        <v>600</v>
+      </c>
+      <c r="T44" s="3">
         <v>500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2662,50 +2761,53 @@
       <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>251900</v>
+      </c>
+      <c r="E46" s="3">
         <v>123100</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2721,50 +2823,53 @@
       <c r="J46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
         <v>14500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>19</v>
       </c>
@@ -2780,8 +2885,8 @@
       <c r="J47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2813,17 +2918,20 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E48" s="3">
         <v>110700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2839,11 +2947,11 @@
       <c r="J48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="3">
         <v>900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2855,11 +2963,11 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
@@ -2872,17 +2980,20 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E49" s="3">
         <v>123000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>19</v>
       </c>
@@ -2898,41 +3009,44 @@
       <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="3">
         <v>4700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4800</v>
       </c>
       <c r="M49" s="3">
         <v>4800</v>
       </c>
       <c r="N49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O49" s="3">
         <v>4900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,17 +3166,20 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3075,8 +3195,8 @@
       <c r="J52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,17 +3290,20 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>531400</v>
+      </c>
+      <c r="E54" s="3">
         <v>374700</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3193,41 +3319,44 @@
       <c r="J54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="3">
         <v>11400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,17 +3402,18 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E57" s="3">
         <v>29400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3298,50 +3429,53 @@
       <c r="J57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3357,26 +3491,26 @@
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>800</v>
       </c>
       <c r="R58" s="3">
         <v>800</v>
@@ -3385,22 +3519,25 @@
         <v>800</v>
       </c>
       <c r="T58" s="3">
+        <v>800</v>
+      </c>
+      <c r="U58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E59" s="3">
         <v>57900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3416,50 +3553,53 @@
       <c r="J59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92500</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3475,50 +3615,53 @@
       <c r="J60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E61" s="3">
         <v>296100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3562,22 +3705,25 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E62" s="3">
         <v>17500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3593,20 +3739,20 @@
       <c r="J62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>3000</v>
       </c>
       <c r="P62" s="3">
         <v>3000</v>
@@ -3615,19 +3761,22 @@
         <v>3000</v>
       </c>
       <c r="R62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,17 +3958,20 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E66" s="3">
         <v>412500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3829,41 +3987,44 @@
       <c r="J66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,17 +4292,20 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>15300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4147,41 +4321,44 @@
       <c r="J72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="3">
         <v>-45800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-37400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,17 +4540,20 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>328100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-37800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4383,41 +4569,44 @@
       <c r="J76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1800</v>
       </c>
       <c r="O81" s="3">
         <v>-1800</v>
       </c>
       <c r="P81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,34 +4819,35 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4675,13 +4874,16 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-16300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-500</v>
       </c>
       <c r="S89" s="3">
         <v>-500</v>
       </c>
       <c r="T89" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="U89" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,50 +5277,51 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,50 +5461,53 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5291,10 +5521,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>143700</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>124800</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>171600</v>
+      </c>
+      <c r="F8" s="3">
         <v>156300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>157300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>152600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>152500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>144800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>137300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>132600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>465600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2000</v>
       </c>
       <c r="T8" s="3">
         <v>2200</v>
       </c>
       <c r="U8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>123600</v>
+      </c>
+      <c r="F9" s="3">
         <v>115000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>113200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>107000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>110300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>108600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>100000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>355000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>400</v>
       </c>
       <c r="U9" s="3">
         <v>400</v>
       </c>
       <c r="V9" s="3">
+        <v>400</v>
+      </c>
+      <c r="W9" s="3">
+        <v>400</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F10" s="3">
         <v>41300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>44100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>40600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>45500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>34500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>28700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>32600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>110600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,20 +1020,20 @@
       <c r="K12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,26 +1121,32 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>13500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1114,43 +1154,49 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,32 +1204,32 @@
         <v>3300</v>
       </c>
       <c r="E15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="F15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
       </c>
       <c r="H15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J15" s="3">
         <v>2800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>9000</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>160900</v>
+      </c>
+      <c r="F17" s="3">
         <v>175200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>136800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>191700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>132300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>131800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>132200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>120000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>429100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3600</v>
       </c>
       <c r="V17" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X17" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>20500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-39100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>20200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>36500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,82 +1446,90 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>8600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1463,226 +1537,244 @@
         <v>19</v>
       </c>
       <c r="I21" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3">
         <v>9600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>9600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-44900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>25400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>19</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-49800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>19100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-49700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>12100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-49700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>12100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-49700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>12100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2659,25 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E41" s="3">
         <v>201500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>201500</v>
+      </c>
+      <c r="G41" s="3">
         <v>77300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2516,41 +2690,47 @@
       <c r="K41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>4900</v>
       </c>
       <c r="Q41" s="3">
         <v>1600</v>
       </c>
       <c r="R41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,23 +2791,29 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F43" s="3">
         <v>44500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>39400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2640,30 +2826,30 @@
       <c r="K43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>400</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2703,55 +2895,61 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
-      </c>
-      <c r="S44" s="3">
-        <v>600</v>
-      </c>
-      <c r="T44" s="3">
-        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
       </c>
       <c r="V44" s="3">
+        <v>500</v>
+      </c>
+      <c r="W44" s="3">
+        <v>600</v>
+      </c>
+      <c r="X44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2764,23 +2962,23 @@
       <c r="K45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -2789,31 +2987,37 @@
         <v>400</v>
       </c>
       <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3">
+        <v>400</v>
+      </c>
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>260600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>250900</v>
+      </c>
+      <c r="F46" s="3">
         <v>251900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>123100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2826,56 +3030,62 @@
       <c r="K46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G47" s="3">
         <v>14500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>19</v>
       </c>
@@ -2888,11 +3098,11 @@
       <c r="K47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2921,23 +3131,29 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>142700</v>
+      </c>
+      <c r="F48" s="3">
         <v>141500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>110700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2950,14 +3166,14 @@
       <c r="K48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="3">
         <v>900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -2966,14 +3182,14 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
@@ -2983,23 +3199,29 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>130700</v>
+      </c>
+      <c r="F49" s="3">
         <v>130900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>123000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3012,41 +3234,47 @@
       <c r="K49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="3">
         <v>4700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,23 +3403,29 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3198,11 +3438,11 @@
       <c r="K52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,23 +3539,29 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>542900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>531800</v>
+      </c>
+      <c r="F54" s="3">
         <v>531400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>374700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3322,41 +3574,47 @@
       <c r="K54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="3">
         <v>11400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,23 +3663,25 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F57" s="3">
         <v>33200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>29400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3432,56 +3694,62 @@
       <c r="K57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3494,56 +3762,62 @@
       <c r="K58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
+        <v>800</v>
+      </c>
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F59" s="3">
         <v>55800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>57900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3556,56 +3830,62 @@
       <c r="K59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F60" s="3">
         <v>94000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>92500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3618,56 +3898,62 @@
       <c r="K60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>76800</v>
+      </c>
+      <c r="F61" s="3">
         <v>78100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>296100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3708,28 +3994,34 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F62" s="3">
         <v>8200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>17500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3742,41 +4034,47 @@
       <c r="K62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="3">
         <v>3100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2500</v>
       </c>
       <c r="O62" s="3">
         <v>2700</v>
       </c>
       <c r="P62" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q62" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="R62" s="3">
         <v>3000</v>
       </c>
       <c r="S62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U62" s="3">
         <v>2500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,23 +4271,29 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>199100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>196600</v>
+      </c>
+      <c r="F66" s="3">
         <v>203300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>412500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>19</v>
       </c>
@@ -3990,41 +4306,47 @@
       <c r="K66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="3">
         <v>10300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,23 +4637,29 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F72" s="3">
         <v>4800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>15300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4324,41 +4672,47 @@
       <c r="K72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" s="3">
         <v>-45800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-43900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-41700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-39300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-35600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-34100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-32800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-31700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-29100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,23 +4909,29 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>335100</v>
+      </c>
+      <c r="F76" s="3">
         <v>328100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-37800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4572,41 +4944,47 @@
       <c r="K76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-49700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>12100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5216,21 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>19</v>
+      <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>19</v>
@@ -4840,20 +5238,20 @@
       <c r="H83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>19</v>
+      <c r="I83" s="3">
+        <v>11300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
+      <c r="K83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4877,13 +5275,19 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-16300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>19</v>
+      <c r="I89" s="3">
+        <v>43800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,56 +5718,58 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>19</v>
+      <c r="I91" s="3">
+        <v>-11800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,46 +5918,52 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>19</v>
+      <c r="I94" s="3">
+        <v>-11700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -5512,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5524,10 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F100" s="3">
         <v>143700</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>19</v>
+      <c r="I100" s="3">
+        <v>21200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>124800</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>19</v>
+      <c r="I102" s="3">
+        <v>53400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="T102" s="3">
-        <v>1500</v>
       </c>
       <c r="U102" s="3">
         <v>-600</v>
       </c>
       <c r="V102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,228 +665,234 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E8" s="3">
         <v>173100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>156300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>152600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>152500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>144800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>137300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>132600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>465600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E9" s="3">
         <v>130700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>123600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>113200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>110300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>355000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
-      </c>
-      <c r="S9" s="3">
-        <v>500</v>
       </c>
       <c r="T9" s="3">
         <v>500</v>
       </c>
       <c r="U9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V9" s="3">
         <v>400</v>
@@ -895,78 +901,84 @@
         <v>400</v>
       </c>
       <c r="X9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E10" s="3">
         <v>42400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>48000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>110600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,8 @@
       <c r="M12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1036,7 +1049,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,17 +1158,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>13500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1160,48 +1179,51 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>300</v>
       </c>
       <c r="T14" s="3">
+        <v>300</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
         <v>3300</v>
@@ -1210,7 +1232,7 @@
         <v>3300</v>
       </c>
       <c r="G15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="3">
         <v>3000</v>
@@ -1219,20 +1241,20 @@
         <v>3000</v>
       </c>
       <c r="J15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9000</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>172400</v>
+      </c>
+      <c r="E17" s="3">
         <v>161400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>175200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>136800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>191700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>131800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>429100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1900</v>
       </c>
       <c r="W18" s="3">
         <v>-1900</v>
       </c>
       <c r="X18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,53 +1480,54 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1502,140 +1535,146 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>14500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3">
         <v>31500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3">
         <v>9600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3">
         <v>4900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1644,134 +1683,140 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-44900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1800</v>
       </c>
       <c r="R23" s="3">
         <v>-1800</v>
       </c>
       <c r="S23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4900</v>
       </c>
       <c r="I24" s="3">
         <v>4900</v>
       </c>
       <c r="J24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>19</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1779,17 +1824,20 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1800</v>
       </c>
       <c r="R26" s="3">
         <v>-1800</v>
       </c>
       <c r="S26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1800</v>
       </c>
       <c r="R27" s="3">
         <v>-1800</v>
       </c>
       <c r="S27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,53 +2330,56 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2318,90 +2387,96 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1800</v>
       </c>
       <c r="R33" s="3">
         <v>-1800</v>
       </c>
       <c r="S33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1800</v>
       </c>
       <c r="R35" s="3">
         <v>-1800</v>
       </c>
       <c r="S35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,26 +2746,27 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>216300</v>
+      </c>
+      <c r="E41" s="3">
         <v>215500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>201500</v>
       </c>
       <c r="F41" s="3">
         <v>201500</v>
       </c>
       <c r="G41" s="3">
+        <v>201500</v>
+      </c>
+      <c r="H41" s="3">
         <v>77300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2696,41 +2782,44 @@
       <c r="M41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,26 +2886,29 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E43" s="3">
         <v>32000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2832,27 +2924,27 @@
       <c r="M43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2901,58 +2996,61 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2200</v>
       </c>
       <c r="Q44" s="3">
         <v>2200</v>
       </c>
       <c r="R44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S44" s="3">
         <v>1600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>600</v>
       </c>
       <c r="U44" s="3">
         <v>600</v>
       </c>
       <c r="V44" s="3">
+        <v>600</v>
+      </c>
+      <c r="W44" s="3">
         <v>500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
@@ -2968,59 +3066,62 @@
       <c r="M45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>265900</v>
+      </c>
+      <c r="E46" s="3">
         <v>260600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>250900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>251900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>123100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3036,41 +3137,44 @@
       <c r="M46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="3">
         <v>5800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,17 +3182,17 @@
         <v>5500</v>
       </c>
       <c r="E47" s="3">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="F47" s="3">
         <v>3500</v>
       </c>
       <c r="G47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H47" s="3">
         <v>14500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3104,8 +3208,8 @@
       <c r="M47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3137,26 +3241,29 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E48" s="3">
         <v>142000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>142700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>141500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>110700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3172,11 +3279,11 @@
       <c r="M48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="3">
         <v>900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3188,11 +3295,11 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3205,26 +3312,29 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E49" s="3">
         <v>130600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>123000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3240,41 +3350,44 @@
       <c r="M49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" s="3">
         <v>4700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>4800</v>
       </c>
       <c r="P49" s="3">
         <v>4800</v>
       </c>
       <c r="Q49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R49" s="3">
         <v>4900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,26 +3525,29 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3444,8 +3563,8 @@
       <c r="M52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,26 +3667,29 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E54" s="3">
         <v>542900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>531800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>531400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>374700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3580,41 +3705,44 @@
       <c r="M54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="3">
         <v>11400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,26 +3794,27 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E57" s="3">
         <v>33300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3700,59 +3830,62 @@
       <c r="M57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5900</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
         <v>5900</v>
       </c>
       <c r="F58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3768,26 +3901,26 @@
       <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
@@ -3796,31 +3929,34 @@
         <v>800</v>
       </c>
       <c r="W58" s="3">
+        <v>800</v>
+      </c>
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E59" s="3">
         <v>41900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3836,59 +3972,62 @@
       <c r="M59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E60" s="3">
         <v>81200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>19</v>
       </c>
@@ -3904,59 +4043,62 @@
       <c r="M60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E61" s="3">
         <v>75500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>76800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>78100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>296100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4000,31 +4142,34 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4040,20 +4185,20 @@
       <c r="M62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3000</v>
       </c>
       <c r="S62" s="3">
         <v>3000</v>
@@ -4062,19 +4207,22 @@
         <v>3000</v>
       </c>
       <c r="U62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V62" s="3">
         <v>2500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,26 +4431,29 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E66" s="3">
         <v>199100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>196600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>203300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>412500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4312,41 +4469,44 @@
       <c r="M66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O66" s="3">
         <v>10300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,26 +4813,29 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E72" s="3">
         <v>18900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4678,41 +4851,44 @@
       <c r="M72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O72" s="3">
         <v>-45800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-37400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,26 +5097,29 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343300</v>
+      </c>
+      <c r="E76" s="3">
         <v>343800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>335100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>328100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-37800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>19</v>
       </c>
@@ -4950,41 +5135,44 @@
       <c r="M76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1100</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1800</v>
       </c>
       <c r="R81" s="3">
         <v>-1800</v>
       </c>
       <c r="S81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,34 +5425,34 @@
         <v>3300</v>
       </c>
       <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="3">
         <v>11300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5281,13 +5479,16 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="3">
         <v>43800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-500</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
       </c>
       <c r="W89" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="X89" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,59 +5939,60 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="3">
         <v>-11800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,59 +6150,62 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="3">
         <v>-11700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-300</v>
       </c>
       <c r="P94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5990,10 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>143700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="3">
         <v>21200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>14100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>124800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="3">
         <v>53400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,237 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E8" s="3">
         <v>175400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>173100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>171600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>156300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>152600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>152500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>144800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>137300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>132600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>465600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E9" s="3">
         <v>133900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>130700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>123600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>113200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>107000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>110300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>108600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>355000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
-      </c>
-      <c r="T9" s="3">
-        <v>500</v>
       </c>
       <c r="U9" s="3">
         <v>500</v>
       </c>
       <c r="V9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W9" s="3">
         <v>400</v>
@@ -904,81 +911,87 @@
         <v>400</v>
       </c>
       <c r="Y9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E10" s="3">
         <v>41500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>48000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>110600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,8 @@
       <c r="N12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
+      <c r="O12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1052,7 +1066,7 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,17 +1181,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>13500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1182,51 +1202,54 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>300</v>
       </c>
       <c r="U14" s="3">
+        <v>300</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3300</v>
       </c>
       <c r="F15" s="3">
         <v>3300</v>
@@ -1235,7 +1258,7 @@
         <v>3300</v>
       </c>
       <c r="H15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="I15" s="3">
         <v>3000</v>
@@ -1244,20 +1267,20 @@
         <v>3000</v>
       </c>
       <c r="K15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9000</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E17" s="3">
         <v>172400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>161400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>160900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>175200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>136800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>191700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>131800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>429100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-1900</v>
       </c>
       <c r="X18" s="3">
         <v>-1900</v>
       </c>
       <c r="Y18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,56 +1514,57 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1538,93 +1572,99 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="3">
         <v>31500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1632,52 +1672,52 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3">
         <v>4900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>500</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1686,140 +1726,146 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-44900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1800</v>
       </c>
       <c r="S23" s="3">
         <v>-1800</v>
       </c>
       <c r="T23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4900</v>
       </c>
       <c r="J24" s="3">
         <v>4900</v>
       </c>
       <c r="K24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>19</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1827,17 +1873,20 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1800</v>
       </c>
       <c r="S26" s="3">
         <v>-1800</v>
       </c>
       <c r="T26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1800</v>
       </c>
       <c r="S27" s="3">
         <v>-1800</v>
       </c>
       <c r="T27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,56 +2400,59 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2390,93 +2460,99 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1800</v>
       </c>
       <c r="S33" s="3">
         <v>-1800</v>
       </c>
       <c r="T33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1800</v>
       </c>
       <c r="S35" s="3">
         <v>-1800</v>
       </c>
       <c r="T35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,29 +2833,30 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E41" s="3">
         <v>216300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>215500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>201500</v>
       </c>
       <c r="G41" s="3">
         <v>201500</v>
       </c>
       <c r="H41" s="3">
+        <v>201500</v>
+      </c>
+      <c r="I41" s="3">
         <v>77300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2785,41 +2872,44 @@
       <c r="N41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,29 +2979,32 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E43" s="3">
         <v>37900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>19</v>
       </c>
@@ -2927,27 +3020,27 @@
       <c r="N43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2999,61 +3095,64 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2200</v>
       </c>
       <c r="R44" s="3">
         <v>2200</v>
       </c>
       <c r="S44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T44" s="3">
         <v>1600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1700</v>
-      </c>
-      <c r="U44" s="3">
-        <v>600</v>
       </c>
       <c r="V44" s="3">
         <v>600</v>
       </c>
       <c r="W44" s="3">
+        <v>600</v>
+      </c>
+      <c r="X44" s="3">
         <v>500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E45" s="3">
         <v>11700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3069,62 +3168,65 @@
       <c r="N45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E46" s="3">
         <v>265900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>260600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>250900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>251900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3140,41 +3242,44 @@
       <c r="N46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="3">
         <v>5800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3185,17 +3290,17 @@
         <v>5500</v>
       </c>
       <c r="F47" s="3">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G47" s="3">
         <v>3500</v>
       </c>
       <c r="H47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I47" s="3">
         <v>14500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3211,8 +3316,8 @@
       <c r="N47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3244,29 +3349,32 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E48" s="3">
         <v>152200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>142000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>142700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>141500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>110700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3282,11 +3390,11 @@
       <c r="N48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="3">
         <v>900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3298,11 +3406,11 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
@@ -3315,29 +3423,32 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E49" s="3">
         <v>130400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>123000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3353,41 +3464,44 @@
       <c r="N49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="3">
         <v>4700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>4800</v>
       </c>
       <c r="Q49" s="3">
         <v>4800</v>
       </c>
       <c r="R49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S49" s="3">
         <v>4900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,29 +3645,32 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3566,8 +3686,8 @@
       <c r="N52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,29 +3793,32 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>558200</v>
+      </c>
+      <c r="E54" s="3">
         <v>558000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>542900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>531800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>531400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>374700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3708,41 +3834,44 @@
       <c r="N54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="3">
         <v>11400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,29 +3925,30 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E57" s="3">
         <v>39200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3833,62 +3964,65 @@
       <c r="N57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5900</v>
       </c>
       <c r="F58" s="3">
         <v>5900</v>
       </c>
       <c r="G58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
@@ -3904,26 +4038,26 @@
       <c r="N58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>800</v>
       </c>
       <c r="V58" s="3">
         <v>800</v>
@@ -3932,34 +4066,37 @@
         <v>800</v>
       </c>
       <c r="X58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E59" s="3">
         <v>43400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>55800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>19</v>
       </c>
@@ -3975,62 +4112,65 @@
       <c r="N59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E60" s="3">
         <v>89300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4046,62 +4186,65 @@
       <c r="N60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E61" s="3">
         <v>78700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>75500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>76800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>78100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>296100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4145,34 +4288,37 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E62" s="3">
         <v>21600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4188,20 +4334,20 @@
       <c r="N62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3000</v>
       </c>
       <c r="T62" s="3">
         <v>3000</v>
@@ -4210,19 +4356,22 @@
         <v>3000</v>
       </c>
       <c r="V62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W62" s="3">
         <v>2500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,29 +4589,32 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>214300</v>
+      </c>
+      <c r="E66" s="3">
         <v>214700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>199100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>196600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>203300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>412500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4472,41 +4630,44 @@
       <c r="N66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P66" s="3">
         <v>10300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,29 +4987,32 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E72" s="3">
         <v>17700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>19</v>
       </c>
@@ -4854,41 +5028,44 @@
       <c r="N72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P72" s="3">
         <v>-45800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-37400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,29 +5283,32 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343900</v>
+      </c>
+      <c r="E76" s="3">
         <v>343300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>343800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>335100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>328100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-37800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5138,41 +5324,44 @@
       <c r="N76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1100</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1800</v>
       </c>
       <c r="S81" s="3">
         <v>-1800</v>
       </c>
       <c r="T81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,46 +5614,47 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
         <v>3300</v>
       </c>
       <c r="F83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="3">
         <v>11300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5482,13 +5681,16 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="3">
         <v>43800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-500</v>
       </c>
       <c r="W89" s="3">
         <v>-500</v>
       </c>
       <c r="X89" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,62 +6160,63 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,62 +6380,65 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-300</v>
       </c>
       <c r="Q94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6222,10 +6452,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,70 +6790,73 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>143700</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="3">
         <v>21200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>124800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="3">
         <v>53400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,359 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>172900</v>
+      </c>
+      <c r="F8" s="3">
         <v>177400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>175400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>173100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>171600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>156300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>157300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>152600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>152500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>144800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>137300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>132600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>465600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="W8" s="3">
-        <v>2000</v>
       </c>
       <c r="X8" s="3">
         <v>2200</v>
       </c>
       <c r="Y8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>149200</v>
+      </c>
+      <c r="F9" s="3">
         <v>149400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>133900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>130700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>123600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>115000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>113200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>112000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>107000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>110300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>108600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>100000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>355000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>400</v>
-      </c>
-      <c r="X9" s="3">
-        <v>400</v>
       </c>
       <c r="Y9" s="3">
         <v>400</v>
       </c>
       <c r="Z9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>23700</v>
+      </c>
+      <c r="F10" s="3">
         <v>28000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>41500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>42400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>48000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>41300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>44100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>40600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>45500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>34500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>28700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>32600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>110600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>6000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>3600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,20 +1087,20 @@
       <c r="O12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
+      <c r="P12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,13 +1200,19 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1184,20 +1224,20 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>13500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1205,88 +1245,94 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
         <v>4000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3300</v>
       </c>
       <c r="H15" s="3">
         <v>3300</v>
       </c>
       <c r="I15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="J15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="K15" s="3">
         <v>3000</v>
       </c>
       <c r="L15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>9000</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>185200</v>
+      </c>
+      <c r="F17" s="3">
         <v>184000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>172400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>161400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>160900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>175200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>136800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>191700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>132300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>131800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>132200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>120000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>429100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>3600</v>
       </c>
       <c r="Z17" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>20500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-39100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>20200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>12600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>36500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1527,357 +1595,381 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>8600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>14000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3">
         <v>31500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>10900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-44900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>25400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>19</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>9600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-49800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>19100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-49700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>19600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,144 +2555,156 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-8600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-49700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-49700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,35 +3006,37 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>184400</v>
+      </c>
+      <c r="F41" s="3">
         <v>199500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>216300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>215500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>201500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>201500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>77300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>19</v>
       </c>
@@ -2875,41 +3049,47 @@
       <c r="O41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>4900</v>
       </c>
       <c r="U41" s="3">
         <v>1600</v>
       </c>
       <c r="V41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="W41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,35 +3162,41 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F43" s="3">
         <v>37400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>37900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>32000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>38000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>44500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>39400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3023,30 +3209,30 @@
       <c r="O43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3098,67 +3290,73 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
-      </c>
-      <c r="W44" s="3">
-        <v>600</v>
-      </c>
-      <c r="X44" s="3">
-        <v>500</v>
       </c>
       <c r="Y44" s="3">
         <v>600</v>
       </c>
       <c r="Z44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3171,23 +3369,23 @@
       <c r="O45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
-      </c>
-      <c r="T45" s="3">
-        <v>300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>400</v>
       </c>
       <c r="V45" s="3">
         <v>300</v>
@@ -3196,43 +3394,49 @@
         <v>400</v>
       </c>
       <c r="X45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>241000</v>
+      </c>
+      <c r="F46" s="3">
         <v>250400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>265900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>260600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>250900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>251900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>123100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3245,41 +3449,47 @@
       <c r="O46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R46" s="3">
         <v>5800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3293,20 +3503,20 @@
         <v>5500</v>
       </c>
       <c r="G47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>14500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3319,11 +3529,11 @@
       <c r="O47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3352,35 +3562,41 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>176300</v>
+      </c>
+      <c r="F48" s="3">
         <v>163900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>152200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>142000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>142700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>141500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>110700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3393,14 +3609,14 @@
       <c r="O48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="3">
         <v>900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3409,14 +3625,14 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
@@ -3426,35 +3642,41 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>130100</v>
+      </c>
+      <c r="F49" s="3">
         <v>133000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>130400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>130600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>130700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>130900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>123000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3467,41 +3689,47 @@
       <c r="O49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="3">
         <v>4700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,35 +3882,41 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3689,11 +3929,11 @@
       <c r="O52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,35 +4042,41 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>555600</v>
+      </c>
+      <c r="F54" s="3">
         <v>558200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>558000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>542900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>531800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>531400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>374700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>19</v>
       </c>
@@ -3837,41 +4089,47 @@
       <c r="O54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" s="3">
         <v>11400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>8200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,35 +4186,37 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F57" s="3">
         <v>41800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>39200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>33300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>32400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>33200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>19</v>
       </c>
@@ -3967,68 +4229,74 @@
       <c r="O57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4041,68 +4309,74 @@
       <c r="O58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1300</v>
-      </c>
-      <c r="V58" s="3">
-        <v>800</v>
-      </c>
-      <c r="W58" s="3">
-        <v>800</v>
       </c>
       <c r="X58" s="3">
         <v>800</v>
       </c>
       <c r="Y58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F59" s="3">
         <v>45500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>43400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>41900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>40300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>55800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>57900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4115,68 +4389,74 @@
       <c r="O59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F60" s="3">
         <v>94400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>81200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>78600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>94000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>92500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4189,68 +4469,74 @@
       <c r="O60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F61" s="3">
         <v>79300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>78700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>75500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>76800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>78100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>296100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4291,40 +4577,46 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F62" s="3">
         <v>18400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>21600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>8200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>17500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4337,41 +4629,47 @@
       <c r="O62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>2500</v>
       </c>
       <c r="S62" s="3">
         <v>2700</v>
       </c>
       <c r="T62" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="U62" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="V62" s="3">
         <v>3000</v>
       </c>
       <c r="W62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>2500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>3000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,35 +4902,41 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>223200</v>
+      </c>
+      <c r="F66" s="3">
         <v>214300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>214700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>199100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>196600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>203300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>412500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4633,41 +4949,47 @@
       <c r="O66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R66" s="3">
         <v>10300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,35 +5332,41 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F72" s="3">
         <v>17400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>17700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>18900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>15300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5031,41 +5379,47 @@
       <c r="O72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R72" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-43900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-41700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-39300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-37400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-35600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-34100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-32800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-31700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-29100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,35 +5652,41 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>332400</v>
+      </c>
+      <c r="F76" s="3">
         <v>343900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>343300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>343800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>335100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>328100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-37800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5327,41 +5699,47 @@
       <c r="O76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1100</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-49700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,52 +6011,54 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3000</v>
       </c>
       <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="I83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="3">
         <v>11300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
+      <c r="O83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5684,13 +6082,19 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-16300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="3">
         <v>43800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,68 +6601,70 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="3">
         <v>-11800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,58 +6837,64 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="3">
         <v>-11700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -6443,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6455,10 +6915,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E100" s="3">
         <v>-1600</v>
       </c>
       <c r="F100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>143700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="3">
         <v>21200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>14100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>124800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="3">
         <v>53400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X102" s="3">
-        <v>1500</v>
       </c>
       <c r="Y102" s="3">
         <v>-600</v>
       </c>
       <c r="Z102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,273 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E8" s="3">
         <v>171200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>172900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>175400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>173100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>156300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>152600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>152500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>137300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>132600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>465600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E9" s="3">
         <v>149800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>133900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>130700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>107000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>110300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>108600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>355000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>900</v>
-      </c>
-      <c r="W9" s="3">
-        <v>500</v>
       </c>
       <c r="X9" s="3">
         <v>500</v>
       </c>
       <c r="Y9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z9" s="3">
         <v>400</v>
@@ -934,90 +940,96 @@
         <v>400</v>
       </c>
       <c r="AB9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E10" s="3">
         <v>21400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>28000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>48000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>110600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,8 @@
       <c r="Q12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
+      <c r="R12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1103,7 +1116,7 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,16 +1222,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1230,17 +1249,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>13500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1251,60 +1270,63 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>300</v>
       </c>
       <c r="X14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3300</v>
       </c>
       <c r="I15" s="3">
         <v>3300</v>
@@ -1313,7 +1335,7 @@
         <v>3300</v>
       </c>
       <c r="K15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L15" s="3">
         <v>3000</v>
@@ -1322,20 +1344,20 @@
         <v>3000</v>
       </c>
       <c r="N15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9000</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E17" s="3">
         <v>187800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>185200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>172400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>161400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>160900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>175200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>191700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>132200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>120000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>429100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-39100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-1900</v>
       </c>
       <c r="AA18" s="3">
         <v>-1900</v>
       </c>
       <c r="AB18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,65 +1615,66 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1649,164 +1682,170 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3">
         <v>31500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="3">
         <v>9600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>500</v>
       </c>
       <c r="S22" s="3">
         <v>500</v>
       </c>
       <c r="T22" s="3">
+        <v>500</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1815,158 +1854,164 @@
         <v>100</v>
       </c>
       <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-44900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-1800</v>
       </c>
       <c r="V23" s="3">
         <v>-1800</v>
       </c>
       <c r="W23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4900</v>
       </c>
       <c r="M24" s="3">
         <v>4900</v>
       </c>
       <c r="N24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>19</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1974,17 +2019,20 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-1800</v>
       </c>
       <c r="V26" s="3">
         <v>-1800</v>
       </c>
       <c r="W26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1800</v>
       </c>
       <c r="V27" s="3">
         <v>-1800</v>
       </c>
       <c r="W27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,65 +2609,68 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2609,102 +2678,108 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1800</v>
       </c>
       <c r="V33" s="3">
         <v>-1800</v>
       </c>
       <c r="W33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1800</v>
       </c>
       <c r="V35" s="3">
         <v>-1800</v>
       </c>
       <c r="W35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,38 +3093,39 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E41" s="3">
         <v>188200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>184400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>199500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>216300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>201500</v>
       </c>
       <c r="J41" s="3">
         <v>201500</v>
       </c>
       <c r="K41" s="3">
+        <v>201500</v>
+      </c>
+      <c r="L41" s="3">
         <v>77300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>19</v>
       </c>
@@ -3055,64 +3141,67 @@
       <c r="Q41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>45400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3168,38 +3257,41 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E43" s="3">
         <v>42500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3215,27 +3307,27 @@
       <c r="Q43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3296,40 +3391,43 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>2100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2200</v>
       </c>
       <c r="U44" s="3">
         <v>2200</v>
       </c>
       <c r="V44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W44" s="3">
         <v>1600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1700</v>
-      </c>
-      <c r="X44" s="3">
-        <v>600</v>
       </c>
       <c r="Y44" s="3">
         <v>600</v>
       </c>
       <c r="Z44" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA44" s="3">
         <v>500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,29 +3435,29 @@
         <v>12200</v>
       </c>
       <c r="E45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3375,71 +3473,74 @@
       <c r="Q45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E46" s="3">
         <v>242900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>250400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>265900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>260600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>250900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>251900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>123100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3455,41 +3556,44 @@
       <c r="Q46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S46" s="3">
         <v>5800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3509,17 +3613,17 @@
         <v>5500</v>
       </c>
       <c r="I47" s="3">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="J47" s="3">
         <v>3500</v>
       </c>
       <c r="K47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L47" s="3">
         <v>14500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3535,8 +3639,8 @@
       <c r="Q47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3568,38 +3672,41 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E48" s="3">
         <v>204100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>176300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>163900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>152200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>142000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>142700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>141500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>110700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3615,11 +3722,11 @@
       <c r="Q48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S48" s="3">
         <v>900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -3631,11 +3738,11 @@
         <v>200</v>
       </c>
       <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
@@ -3648,38 +3755,41 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E49" s="3">
         <v>129900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>130100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>133000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>130400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>123000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3695,41 +3805,44 @@
       <c r="Q49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S49" s="3">
         <v>4700</v>
-      </c>
-      <c r="S49" s="3">
-        <v>4800</v>
       </c>
       <c r="T49" s="3">
         <v>4800</v>
       </c>
       <c r="U49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V49" s="3">
         <v>4900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,38 +4004,41 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>19</v>
       </c>
@@ -3935,8 +4054,8 @@
       <c r="Q52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,38 +4170,41 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>546100</v>
+      </c>
+      <c r="E54" s="3">
         <v>585000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>555600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>558200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>558000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>542900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>531800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>531400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>374700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>19</v>
       </c>
@@ -4095,41 +4220,44 @@
       <c r="Q54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S54" s="3">
         <v>11400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,38 +4317,39 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E57" s="3">
         <v>50900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4235,71 +4365,74 @@
       <c r="Q57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7200</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
         <v>7200</v>
       </c>
       <c r="F58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5900</v>
       </c>
       <c r="I58" s="3">
         <v>5900</v>
       </c>
       <c r="J58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4315,26 +4448,26 @@
       <c r="Q58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1300</v>
-      </c>
-      <c r="X58" s="3">
-        <v>800</v>
       </c>
       <c r="Y58" s="3">
         <v>800</v>
@@ -4343,43 +4476,46 @@
         <v>800</v>
       </c>
       <c r="AA58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E59" s="3">
         <v>73400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>41900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4395,71 +4531,74 @@
       <c r="Q59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E60" s="3">
         <v>131400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>105300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4475,71 +4614,74 @@
       <c r="Q60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E61" s="3">
         <v>76200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>77700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>79300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>78700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>76800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>78100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>296100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4583,43 +4725,46 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E62" s="3">
         <v>36200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4635,20 +4780,20 @@
       <c r="Q62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S62" s="3">
         <v>3100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>3000</v>
       </c>
       <c r="W62" s="3">
         <v>3000</v>
@@ -4657,19 +4802,22 @@
         <v>3000</v>
       </c>
       <c r="Y62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,38 +5062,41 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>234300</v>
+      </c>
+      <c r="E66" s="3">
         <v>264500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>214300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>214700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>199100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>196600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>203300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>412500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>19</v>
       </c>
@@ -4955,41 +5112,44 @@
       <c r="Q66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S66" s="3">
         <v>10300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,38 +5508,41 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5385,41 +5558,44 @@
       <c r="Q72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S72" s="3">
         <v>-45800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-43900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-39300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-37400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-35600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-31700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-29100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,38 +5840,41 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E76" s="3">
         <v>320500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>332400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>343900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>343800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>335100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>328100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-37800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5705,41 +5890,44 @@
       <c r="Q76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1100</v>
       </c>
-      <c r="AB76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1800</v>
       </c>
       <c r="V81" s="3">
         <v>-1800</v>
       </c>
       <c r="W81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,55 +6210,56 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3300</v>
       </c>
       <c r="H83" s="3">
         <v>3300</v>
       </c>
       <c r="I83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="3">
         <v>11300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -6088,13 +6286,16 @@
         <v>200</v>
       </c>
       <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E89" s="3">
         <v>13100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89" s="3">
         <v>43800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-500</v>
       </c>
       <c r="Z89" s="3">
         <v>-500</v>
       </c>
       <c r="AA89" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="AB89" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,71 +6822,72 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="3">
         <v>-11800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,71 +7069,74 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="3">
         <v>-11700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-300</v>
       </c>
       <c r="T94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -6921,10 +7150,13 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,7 +7527,7 @@
         <v>-1700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F100" s="3">
         <v>-1600</v>
@@ -7291,70 +7536,73 @@
         <v>-1600</v>
       </c>
       <c r="H100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>143700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="3">
         <v>21200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>124800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="3">
         <v>53400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,276 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E8" s="3">
         <v>167500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>172900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>175400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>173100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>156300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>152600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>152500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>144800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>137300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>132600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>465600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E9" s="3">
         <v>144900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>149400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>133900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>130700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>113200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>112000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>107000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>110300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>108600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>355000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
-      </c>
-      <c r="X9" s="3">
-        <v>500</v>
       </c>
       <c r="Y9" s="3">
         <v>500</v>
       </c>
       <c r="Z9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA9" s="3">
         <v>400</v>
@@ -943,93 +950,99 @@
         <v>400</v>
       </c>
       <c r="AC9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E10" s="3">
         <v>22600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>48000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>110600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,8 @@
       <c r="R12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="3">
-        <v>100</v>
+      <c r="S12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1119,7 +1133,7 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1236,8 +1256,8 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1252,17 +1272,17 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>13500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1273,63 +1293,66 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>300</v>
       </c>
       <c r="Y14" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3300</v>
       </c>
       <c r="J15" s="3">
         <v>3300</v>
@@ -1338,7 +1361,7 @@
         <v>3300</v>
       </c>
       <c r="L15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M15" s="3">
         <v>3000</v>
@@ -1347,20 +1370,20 @@
         <v>3000</v>
       </c>
       <c r="O15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9000</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E17" s="3">
         <v>181100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>187800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>185200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>184000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>172400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>161400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>175200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>136800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>191700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>132300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>120000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>429100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>36500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-1900</v>
       </c>
       <c r="AB18" s="3">
         <v>-1900</v>
       </c>
       <c r="AC18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,68 +1649,69 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1685,170 +1719,176 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3">
         <v>31500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>600</v>
       </c>
       <c r="G22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>700</v>
       </c>
       <c r="I22" s="3">
+        <v>700</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9600</v>
-      </c>
-      <c r="S22" s="3">
-        <v>500</v>
       </c>
       <c r="T22" s="3">
         <v>500</v>
       </c>
       <c r="U22" s="3">
+        <v>500</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
@@ -1857,164 +1897,170 @@
         <v>100</v>
       </c>
       <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
         <v>600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-44900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-1800</v>
       </c>
       <c r="W23" s="3">
         <v>-1800</v>
       </c>
       <c r="X23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4900</v>
       </c>
       <c r="N24" s="3">
         <v>4900</v>
       </c>
       <c r="O24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>19</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2022,17 +2068,20 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-49800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-1800</v>
       </c>
       <c r="W26" s="3">
         <v>-1800</v>
       </c>
       <c r="X26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-1800</v>
       </c>
       <c r="W27" s="3">
         <v>-1800</v>
       </c>
       <c r="X27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,68 +2679,71 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2681,105 +2751,111 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-1800</v>
       </c>
       <c r="W33" s="3">
         <v>-1800</v>
       </c>
       <c r="X33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-1800</v>
       </c>
       <c r="W35" s="3">
         <v>-1800</v>
       </c>
       <c r="X35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,41 +3180,42 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E41" s="3">
         <v>99500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>199500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>216300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>201500</v>
       </c>
       <c r="K41" s="3">
         <v>201500</v>
       </c>
       <c r="L41" s="3">
+        <v>201500</v>
+      </c>
+      <c r="M41" s="3">
         <v>77300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>19</v>
       </c>
@@ -3144,50 +3231,53 @@
       <c r="R41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E42" s="3">
         <v>45400</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>19</v>
       </c>
@@ -3203,8 +3293,8 @@
       <c r="J42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3260,41 +3350,44 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E43" s="3">
         <v>42400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3310,27 +3403,27 @@
       <c r="R43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3394,73 +3490,76 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>2100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2200</v>
       </c>
       <c r="V44" s="3">
         <v>2200</v>
       </c>
       <c r="W44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X44" s="3">
         <v>1600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>600</v>
       </c>
       <c r="Z44" s="3">
         <v>600</v>
       </c>
       <c r="AA44" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB44" s="3">
         <v>500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12200</v>
+        <v>13900</v>
       </c>
       <c r="E45" s="3">
         <v>12200</v>
       </c>
       <c r="F45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3476,74 +3575,77 @@
       <c r="R45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215900</v>
+      </c>
+      <c r="E46" s="3">
         <v>199500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>250400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>265900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>260600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>250900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>251900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>123100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3559,41 +3661,44 @@
       <c r="R46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T46" s="3">
         <v>5800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3616,17 +3721,17 @@
         <v>5500</v>
       </c>
       <c r="J47" s="3">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="K47" s="3">
         <v>3500</v>
       </c>
       <c r="L47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M47" s="3">
         <v>14500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3642,8 +3747,8 @@
       <c r="R47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3675,41 +3780,44 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214800</v>
+      </c>
+      <c r="E48" s="3">
         <v>208000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>204100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>176300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>163900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>152200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>142000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>142700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>141500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>110700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3725,11 +3833,11 @@
       <c r="R48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T48" s="3">
         <v>900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3741,11 +3849,11 @@
         <v>200</v>
       </c>
       <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
@@ -3758,41 +3866,44 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E49" s="3">
         <v>129700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>129900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>130100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>133000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>130400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>130600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>130700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>123000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3808,41 +3919,44 @@
       <c r="R49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T49" s="3">
         <v>4700</v>
-      </c>
-      <c r="T49" s="3">
-        <v>4800</v>
       </c>
       <c r="U49" s="3">
         <v>4800</v>
       </c>
       <c r="V49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W49" s="3">
         <v>4900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,41 +4124,44 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>19</v>
       </c>
@@ -4057,8 +4177,8 @@
       <c r="R52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,41 +4296,44 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>569400</v>
+      </c>
+      <c r="E54" s="3">
         <v>546100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>585000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>555600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>558200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>558000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>542900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>531800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>531400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>374700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>19</v>
       </c>
@@ -4223,41 +4349,44 @@
       <c r="R54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T54" s="3">
         <v>11400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,41 +4448,42 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E57" s="3">
         <v>48900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4368,74 +4499,77 @@
       <c r="R57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E58" s="3">
         <v>7700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>7200</v>
       </c>
       <c r="F58" s="3">
         <v>7200</v>
       </c>
       <c r="G58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5900</v>
       </c>
       <c r="J58" s="3">
         <v>5900</v>
       </c>
       <c r="K58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4451,26 +4585,26 @@
       <c r="R58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>800</v>
       </c>
       <c r="Z58" s="3">
         <v>800</v>
@@ -4479,46 +4613,49 @@
         <v>800</v>
       </c>
       <c r="AB58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E59" s="3">
         <v>49600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>73400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4534,74 +4671,77 @@
       <c r="R59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E60" s="3">
         <v>106200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>105300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4617,74 +4757,77 @@
       <c r="R60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T60" s="3">
         <v>7200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E61" s="3">
         <v>75600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>76200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>77700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>79300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>78700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>76800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>296100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4728,46 +4871,49 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>36200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4783,20 +4929,20 @@
       <c r="R62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T62" s="3">
         <v>3100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2700</v>
-      </c>
-      <c r="W62" s="3">
-        <v>3000</v>
       </c>
       <c r="X62" s="3">
         <v>3000</v>
@@ -4805,19 +4951,22 @@
         <v>3000</v>
       </c>
       <c r="Z62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>2500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,41 +5220,44 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>263100</v>
+      </c>
+      <c r="E66" s="3">
         <v>234300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>264500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>223200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>214300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>214700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>199100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>196600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>203300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>412500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>19</v>
       </c>
@@ -5115,41 +5273,44 @@
       <c r="R66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T66" s="3">
         <v>10300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,41 +5682,44 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5561,41 +5735,44 @@
       <c r="R72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T72" s="3">
         <v>-45800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-43900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-41700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-39300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-37400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-34100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-32800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-31700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-29100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,41 +6026,44 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>306300</v>
+      </c>
+      <c r="E76" s="3">
         <v>311800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>320500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>332400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>343300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>343800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>335100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>328100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-37800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5893,41 +6079,44 @@
       <c r="R76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1100</v>
       </c>
-      <c r="AC76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-1800</v>
       </c>
       <c r="W81" s="3">
         <v>-1800</v>
       </c>
       <c r="X81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,58 +6409,59 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3300</v>
       </c>
       <c r="I83" s="3">
         <v>3300</v>
       </c>
       <c r="J83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O83" s="3">
         <v>11300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6289,13 +6488,16 @@
         <v>200</v>
       </c>
       <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O89" s="3">
         <v>43800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-500</v>
       </c>
       <c r="AA89" s="3">
         <v>-500</v>
       </c>
       <c r="AB89" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="AC89" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,74 +7043,75 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-18100</v>
-      </c>
       <c r="G91" s="3">
-        <v>-8500</v>
+        <v>-16700</v>
       </c>
       <c r="H91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-8600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O91" s="3">
         <v>-11800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,74 +7299,77 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O94" s="3">
         <v>-11700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-300</v>
       </c>
       <c r="U94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7153,10 +7383,13 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,19 +7761,22 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1700</v>
+        <v>-2100</v>
       </c>
       <c r="E100" s="3">
         <v>-1700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G100" s="3">
         <v>-1600</v>
@@ -7539,70 +7785,73 @@
         <v>-1600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>143700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O100" s="3">
         <v>21200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>124800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O102" s="3">
         <v>53400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INNV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>INNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,410 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F8" s="3">
         <v>172500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>167500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>171200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>172900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>177400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>175400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>173100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>171600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>156300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>157300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>152600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>152500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>144800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>137300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>132600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>465600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>7300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>2000</v>
       </c>
       <c r="AB8" s="3">
         <v>2200</v>
       </c>
       <c r="AC8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>148400</v>
+      </c>
+      <c r="F9" s="3">
         <v>143800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>144900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>149800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>149200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>149400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>133900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>130700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>123600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>115000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>113200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>112000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>107000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>110300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>108600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>100000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>355000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>500</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>400</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>400</v>
       </c>
       <c r="AC9" s="3">
         <v>400</v>
       </c>
       <c r="AD9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F10" s="3">
         <v>28700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>22600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>21400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>23700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>41500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>42400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>48000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>41300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>40600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>45500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>34500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>28700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>32600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>110600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>3600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>3600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,20 +1154,20 @@
       <c r="S12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="3">
-        <v>100</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
+      <c r="T12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,11 +1299,11 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1275,20 +1315,20 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>13500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1296,100 +1336,106 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>300</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="3">
         <v>4000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3300</v>
       </c>
       <c r="L15" s="3">
         <v>3300</v>
       </c>
       <c r="M15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="N15" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="O15" s="3">
         <v>3000</v>
       </c>
       <c r="P15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R15" s="3">
         <v>2800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>9000</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -1417,8 +1463,14 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1498,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>187800</v>
+      </c>
+      <c r="F17" s="3">
         <v>180700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>181100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>187800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>185200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>184000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>172400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>161400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>160900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>175200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>136800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>191700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>132300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>131800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>132200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>120000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>429100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>9600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3200</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>4100</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>3600</v>
       </c>
       <c r="AD17" s="3">
         <v>4100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-16600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-18900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>20500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-39100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>20200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>12600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>36500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,22 +1716,24 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1674,405 +1742,429 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-9600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-13100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>14000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="3">
         <v>31500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="3">
         <v>9600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>9600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>100</v>
       </c>
       <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD22" s="3">
         <v>600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AF22" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>10900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-44900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>25400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>19</v>
+      <c r="AB24" s="3">
+        <v>0</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
@@ -2080,8 +2172,14 @@
       <c r="AD24" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-13700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-49800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>19100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-49700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>12100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>19600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,22 +2816,28 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2706,156 +2846,168 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-49700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>12100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>5700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>19600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-49700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>12100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>5700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>19600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,47 +3353,49 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>127200</v>
+      </c>
+      <c r="F41" s="3">
         <v>121700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>99500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>188200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>184400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>199500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>216300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>215500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>201500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>201500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>77300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>19</v>
       </c>
@@ -3234,56 +3408,62 @@
       <c r="S41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
-      </c>
-      <c r="W41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="X41" s="3">
-        <v>4900</v>
       </c>
       <c r="Y41" s="3">
         <v>1600</v>
       </c>
       <c r="Z41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>2400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F42" s="3">
         <v>45800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>45400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>19</v>
       </c>
@@ -3296,11 +3476,11 @@
       <c r="K42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3353,47 +3533,53 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F43" s="3">
         <v>34500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>42400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>42500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>42700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>37400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>37900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>32000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>38000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>44500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>39400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>19</v>
       </c>
@@ -3406,30 +3592,30 @@
       <c r="S43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>400</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3493,79 +3685,85 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>2100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>600</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>600</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>500</v>
       </c>
       <c r="AC44" s="3">
         <v>600</v>
       </c>
       <c r="AD44" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>19</v>
       </c>
@@ -3578,23 +3776,23 @@
       <c r="S45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
-      </c>
-      <c r="X45" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>400</v>
       </c>
       <c r="Z45" s="3">
         <v>300</v>
@@ -3603,55 +3801,61 @@
         <v>400</v>
       </c>
       <c r="AB45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD45" s="3">
         <v>600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>215200</v>
+      </c>
+      <c r="F46" s="3">
         <v>215900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>199500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>242900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>241000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>250400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>265900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>260600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>250900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>251900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>123100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>19</v>
       </c>
@@ -3664,41 +3868,47 @@
       <c r="S46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V46" s="3">
         <v>5800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>3500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>2300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3724,20 +3934,20 @@
         <v>5500</v>
       </c>
       <c r="K47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>14500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3750,11 +3960,11 @@
       <c r="S47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3783,47 +3993,53 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>210500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>213400</v>
+      </c>
+      <c r="F48" s="3">
         <v>214800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>208000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>204100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>176300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>163900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>152200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>142000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>142700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>141500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>110700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>19</v>
       </c>
@@ -3836,14 +4052,14 @@
       <c r="S48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V48" s="3">
         <v>900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3852,14 +4068,14 @@
         <v>200</v>
       </c>
       <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>100</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
@@ -3869,47 +4085,53 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>129400</v>
+      </c>
+      <c r="F49" s="3">
         <v>129600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>129700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>129900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>130100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>133000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>130400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>130600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>130700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>130900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>123000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>19</v>
       </c>
@@ -3922,41 +4144,47 @@
       <c r="S49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V49" s="3">
         <v>4700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>4800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>5500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>5700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>5900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,47 +4361,53 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>19</v>
       </c>
@@ -4180,11 +4420,11 @@
       <c r="S52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,47 +4545,53 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>545600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>567400</v>
+      </c>
+      <c r="F54" s="3">
         <v>569400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>546100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>585000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>555600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>558200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>558000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>542900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>531800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>531400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>374700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>19</v>
       </c>
@@ -4352,41 +4604,47 @@
       <c r="S54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V54" s="3">
         <v>11400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>12400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>9000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>7700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>8400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>9300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>8200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,47 +4709,49 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F57" s="3">
         <v>48200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>48900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>50900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>50600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>41800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>39200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>29400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>19</v>
       </c>
@@ -4502,80 +4764,86 @@
       <c r="S57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F58" s="3">
         <v>8700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>19</v>
       </c>
@@ -4588,80 +4856,86 @@
       <c r="S58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V58" s="3">
         <v>2700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>800</v>
       </c>
       <c r="AB58" s="3">
         <v>800</v>
       </c>
       <c r="AC58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AF58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F59" s="3">
         <v>80800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>49600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>73400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>47600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>45500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>43400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>41900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>40300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>55800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>19</v>
       </c>
@@ -4674,80 +4948,86 @@
       <c r="S59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>148500</v>
+      </c>
+      <c r="F60" s="3">
         <v>137700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>106200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>131400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>105300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>94400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>89300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>81200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>78600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>94000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>92500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>19</v>
       </c>
@@ -4760,80 +5040,86 @@
       <c r="S60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V60" s="3">
         <v>7200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>3800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>4000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>78000</v>
+      </c>
+      <c r="F61" s="3">
         <v>79100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>75600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>76200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>77700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>79300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>78700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>75500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>76800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>78100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>296100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4874,52 +5160,58 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AF61" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F62" s="3">
         <v>27000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>32600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>36200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>19700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>17500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4932,41 +5224,47 @@
       <c r="S62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V62" s="3">
         <v>3100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>2500</v>
       </c>
       <c r="W62" s="3">
         <v>2700</v>
       </c>
       <c r="X62" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Y62" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Z62" s="3">
         <v>3000</v>
       </c>
       <c r="AA62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AC62" s="3">
         <v>2500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>2600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>3000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AF62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,47 +5533,53 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F66" s="3">
         <v>263100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>234300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>264500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>223200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>214300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>214700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>199100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>196600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>203300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>412500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>19</v>
       </c>
@@ -5276,41 +5592,47 @@
       <c r="S66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V66" s="3">
         <v>10300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>9700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>8100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>7100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,47 +6027,53 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>17400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>18900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>15300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>19</v>
       </c>
@@ -5738,41 +6086,47 @@
       <c r="S72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V72" s="3">
         <v>-45800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-43900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-41700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-39300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-34100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-32800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-31700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-29100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-25800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,47 +6395,53 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>296300</v>
+      </c>
+      <c r="F76" s="3">
         <v>306300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>311800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>320500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>332400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>343900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>343300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>343800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>335100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>328100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-37800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>19</v>
       </c>
@@ -6082,41 +6454,47 @@
       <c r="S76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1100</v>
       </c>
-      <c r="AD76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-49700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>12100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>5700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>19600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,64 +6806,66 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3000</v>
       </c>
       <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q83" s="3">
         <v>11300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
+      <c r="S83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6491,13 +6889,19 @@
         <v>200</v>
       </c>
       <c r="AC83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7354,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F89" s="3">
         <v>29100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-35100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>9500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-16300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q89" s="3">
         <v>43800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,80 +7484,82 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-16700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-11800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -7130,8 +7572,14 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,70 +7756,76 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-8600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-11700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
@@ -7374,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7386,10 +7846,16 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8250,106 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1600</v>
       </c>
       <c r="I100" s="3">
         <v>-1600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>143700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q100" s="3">
         <v>21200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>2000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8434,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F102" s="3">
         <v>22200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-88800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-15100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>14100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>124800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q102" s="3">
         <v>53400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>3400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>1500</v>
       </c>
       <c r="AC102" s="3">
         <v>-600</v>
       </c>
       <c r="AD102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AF102" s="3">
         <v>1300</v>
       </c>
     </row>
